--- a/data/long_razon/P18_3-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_3-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-23,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-51,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>181,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-50,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-39,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>107,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-35,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-58,98; 57,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 242,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 64,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,92; -10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,5; 464,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,57; -14,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-60,99; -3,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,76; 243,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-60,34; 1,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-27,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>275,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-62,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>121,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 62,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,08; 1076,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,32; -17,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,42; 56,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 172,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 49,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,03; 23,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,3; 324,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,45; -13,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 312,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 82,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 72,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,4; 26,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 83,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 138,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 115,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 46,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 76,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-21,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>103,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 57,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 214,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,13; 23,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,1; 24,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,89; 238,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 84,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 19,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 169,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 40,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>123,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 482,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 379,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 98,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 52,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,16; 87,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 149,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 99,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 114,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 103,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>125,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>75,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,67; 291,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,6; 179,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 154,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 205,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,12; 301,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 66,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 168,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 206,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 59,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-19,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>67,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>62,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 77,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,56; 123,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,51; 107,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 31,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,3; 98,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 11,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P18_3-Edad-long_razon.xlsx
+++ b/data/long_razon/P18_3-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.3030150294254646</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8423206701462824</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2115894894763587</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.2322774345166422</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.5099967192551617</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.5483644631303918</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>2.207086199655475</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.5559567130802338</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.2217675329061188</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.03963211668415528</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.4413251967976715</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1.396607225278518</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.4074334767616753</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.04847326484569952</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>-0.3278505869659371</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.668295131564716</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1281759009345611</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6326212851982408</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6370767238453743</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.8183321500641575</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7905573343735742</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.6520931044973625</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.7696371888935046</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3905681379485284</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.5723565667126704</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.6487716559642018</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.4226233945568095</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.6244088799284474</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.4321503464263619</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.6282321900001483</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.3608621285801594</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.285085128526056</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.5721401224226892</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.6803302314727991</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.0921940026808267</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.1564188579804245</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>5.53055663708481</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.235930713515745</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.246442527919032</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.432643749028047</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.09530377870003441</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>2.891016642281218</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>-0.07859071781612099</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.6607672336050268</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.1818663334693907</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.3872809742498505</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.770674537822988</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.654108934686205</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.063692751272598</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.3672882595808161</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.2467755631577557</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3340833441978869</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1164532704191837</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.4285745174291585</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.151682379403476</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.3165672047346347</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1.311560227053803</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.4361870150703667</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>2.079122070820078</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0.2248013481353101</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7743412447769291</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4156492853300389</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.8562711719599576</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.379060227025677</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7595960257880087</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.6208576514570755</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3868316260823124</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4490719183032595</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2609031958146303</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.3691501171435704</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.6244771962711718</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.2945009700875639</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.6727668628619938</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.8019010915661906</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.3522063249273121</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.4408864356732414</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.42672301906761</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.2527515682398198</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>23.19264470947902</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.564245615591509</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.5077983503393741</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.709535416047493</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.4966721763469514</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.578806974139974</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.093151643791783</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.1736169069456319</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>3.710210128578903</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>-0.1284487024325648</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>5.163715647740004</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1.167303798253226</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.2241413782396925</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.06848836257918348</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.02265542321036384</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1019440602369122</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.5702724868817688</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.2621532903162418</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.09726474649321948</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.5523061801634698</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.07355676497386485</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.4586041106166482</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.04166782795344665</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.02086544669451695</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.2518535220657194</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.01002894519108809</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.5069214864141169</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5450442742569249</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5261477779735683</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4954311962806743</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3872565228818398</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2013164630268934</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.5815456005341055</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3270851066455988</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.02764681485217054</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.398160429669481</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.1233127981855673</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.4154578225664224</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.297095557275097</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1156183740774682</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.3146472288977824</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.002191793279192692</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.496493918004116</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6924562527529373</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.7284216247589079</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.106562819907516</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.387745769099282</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2553835532841145</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.7722681776096341</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.307419602064725</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3999424467595648</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.578305935353721</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.4948920545539858</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.4952043092485313</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.7983970958864322</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.3572080458094781</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1.465396127962005</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1725216501037712</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6255944832994255</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.2215218167206313</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.143045307210786</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3142984801237832</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1744395261757238</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.054079578766612</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.303366828811429</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.06774865796033337</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.3217826878001225</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.1737477367386963</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.8458774903987915</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.07780542227462944</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.3955530974580627</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.3177860199831544</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5714140122094274</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2711668239835272</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.5410924160588746</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1734526066703327</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2805126656674967</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4964490341455222</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2612522568445843</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.09398670219373341</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2965009324309101</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2322426515641848</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.4393996802123428</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2230442105082493</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1697301871994248</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.008466957605273464</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.1469903253981475</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.6465580098055265</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.114166362560836</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2568481682413057</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.001745686116525</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.423957632585314</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.3816020404133923</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.254562046292482</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.7578276617243839</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.617715903295</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>1.303722165264255</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.3139573101372096</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.839309475475715</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.4111339259768197</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>1.006562995453199</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.9758045470212918</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>1.061616531428574</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.9094900967298887</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.03211235197902139</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.7630696593031597</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.7355528503952348</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.1190621545765801</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.05137545298746719</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.5149589209307537</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.0005000573089997603</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>1.669274565615565</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.1899986600356971</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.3461362799783229</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.3332572505177464</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0.2376591125035626</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>1.103265732893086</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.251710908598114</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.09058113925159077</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.4827133403333357</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.2310914659646016</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.09899163831219361</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4873389488057912</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.411826362313629</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.0136909720131671</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.4023994982623001</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>0.2999012476815767</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.2737555084958139</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.143963021949355</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.07780168457362502</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.2024124513719645</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0.3223055075440079</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>4.421575204728223</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.954251361447216</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.06153261615225</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>2.536581427357341</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>2.432146171492038</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.532515626619558</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.7815561230655641</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.502029126967051</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.7579857445832251</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>4.855083803089858</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.9750393582804986</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.274068426373009</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.9486649381586401</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.9367778184643512</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>2.453313524624771</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.4515696823494619</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.2044226273106931</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.2458700183054018</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>3.715032243562086</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.365418674465327</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.6215083835973976</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>1.034277965981012</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.004380510841113911</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.262559100448238</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>1.031815549768748</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.5737075733616669</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.6972356949805157</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.09302097447923981</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.8448128479666387</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>1.127240795734295</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.4578522870373393</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.7434537625074489</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3991969127829161</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.520536203507901</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.1202520904769886</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.1026855484881915</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.07150996642435688</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.407851289771241</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.4072532610489852</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.1282203195285858</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.03919855285809357</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>0.01887336638114772</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.2830065774808848</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.01139520335407664</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>0.1131937998141857</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>2.5920229702797</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.058738303528883</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.68550412852561</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>20.02117566650566</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>5.995480380131323</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.987438014401185</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>2.721602776310268</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.6581118785219385</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.41657501536863</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>4.333287333061916</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>1.773498915467467</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>2.076095086011746</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.6646025880055995</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>2.179133668068854</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>3.018611744636034</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.00486018431891292</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6735424231639212</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.2139269896808312</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.9762078888979216</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2352595946120396</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.1522202749033117</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.6980034008199386</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.05497640139962604</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.1237677456876022</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.5218885773224924</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.09042446051875005</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.6869151890598342</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>-0.07047475934478054</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.437015528062237</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.3811350508855046</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3161360789210403</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.202938441795889</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.4161565760130557</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3924137131680125</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.1323124128211394</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.3331106502036016</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.3608297448820906</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1177193631988313</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.09550074410859645</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.1521809479598953</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.2397642054123191</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.3881266641600166</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.2139180136432184</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.176647891183514</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.1176722821154859</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.3761367403273664</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.393348316784484</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.07653538103186809</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.990825424791316</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.72606016060978</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.08246245702423037</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>1.123480213467098</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.2541395544094659</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.3873740472324149</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>1.03329922739155</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.09424026006064143</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>1.06632797261965</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.09314490206213979</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.7715717685057323</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.6998425286398174</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
